--- a/BoSClean/homelessness_counts.xlsx
+++ b/BoSClean/homelessness_counts.xlsx
@@ -5629,7 +5629,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D204"/>
+  <dimension ref="A1:E204"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5658,6 +5658,11 @@
           <t>Count</t>
         </is>
       </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Category</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -5678,6 +5683,11 @@
       <c r="D2" t="n">
         <v>73</v>
       </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>More than 12</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -5698,6 +5708,11 @@
       <c r="D3" t="n">
         <v>12</v>
       </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Less than 12</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -5718,6 +5733,11 @@
       <c r="D4" t="n">
         <v>9</v>
       </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Less than 12</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -5738,6 +5758,11 @@
       <c r="D5" t="n">
         <v>8</v>
       </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Less than 12</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -5758,6 +5783,11 @@
       <c r="D6" t="n">
         <v>7</v>
       </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Less than 12</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -5778,6 +5808,11 @@
       <c r="D7" t="n">
         <v>6</v>
       </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Less than 12</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -5798,6 +5833,11 @@
       <c r="D8" t="n">
         <v>6</v>
       </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Less than 12</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -5818,6 +5858,11 @@
       <c r="D9" t="n">
         <v>5</v>
       </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Less than 12</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -5838,6 +5883,11 @@
       <c r="D10" t="n">
         <v>4</v>
       </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Less than 12</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -5858,6 +5908,11 @@
       <c r="D11" t="n">
         <v>4</v>
       </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Less than 12</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -5878,6 +5933,11 @@
       <c r="D12" t="n">
         <v>3</v>
       </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Less than 12</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -5898,6 +5958,11 @@
       <c r="D13" t="n">
         <v>3</v>
       </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Less than 12</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -5918,6 +5983,11 @@
       <c r="D14" t="n">
         <v>1</v>
       </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Less than 12</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -5938,6 +6008,11 @@
       <c r="D15" t="n">
         <v>1</v>
       </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Less than 12</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -5958,6 +6033,11 @@
       <c r="D16" t="n">
         <v>43</v>
       </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>More than 12</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -5978,6 +6058,11 @@
       <c r="D17" t="n">
         <v>8</v>
       </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Less than 12</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -5998,6 +6083,11 @@
       <c r="D18" t="n">
         <v>3</v>
       </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Less than 12</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -6018,6 +6108,11 @@
       <c r="D19" t="n">
         <v>3</v>
       </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Less than 12</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -6038,6 +6133,11 @@
       <c r="D20" t="n">
         <v>3</v>
       </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Less than 12</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -6058,6 +6158,11 @@
       <c r="D21" t="n">
         <v>3</v>
       </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Less than 12</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -6078,6 +6183,11 @@
       <c r="D22" t="n">
         <v>2</v>
       </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Less than 12</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -6098,6 +6208,11 @@
       <c r="D23" t="n">
         <v>2</v>
       </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Less than 12</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -6118,6 +6233,11 @@
       <c r="D24" t="n">
         <v>1</v>
       </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Less than 12</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -6138,6 +6258,11 @@
       <c r="D25" t="n">
         <v>1</v>
       </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Less than 12</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -6158,6 +6283,11 @@
       <c r="D26" t="n">
         <v>1</v>
       </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Less than 12</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -6178,6 +6308,11 @@
       <c r="D27" t="n">
         <v>1</v>
       </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Less than 12</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -6198,6 +6333,11 @@
       <c r="D28" t="n">
         <v>27</v>
       </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Less than 12</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -6218,6 +6358,11 @@
       <c r="D29" t="n">
         <v>24</v>
       </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>More than 12</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -6238,6 +6383,11 @@
       <c r="D30" t="n">
         <v>2</v>
       </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Less than 12</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -6258,6 +6408,11 @@
       <c r="D31" t="n">
         <v>1</v>
       </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Less than 12</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -6278,6 +6433,11 @@
       <c r="D32" t="n">
         <v>1</v>
       </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Less than 12</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -6298,6 +6458,11 @@
       <c r="D33" t="n">
         <v>1</v>
       </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Less than 12</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -6318,6 +6483,11 @@
       <c r="D34" t="n">
         <v>1</v>
       </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Less than 12</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -6338,6 +6508,11 @@
       <c r="D35" t="n">
         <v>1</v>
       </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Less than 12</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -6358,6 +6533,11 @@
       <c r="D36" t="n">
         <v>72</v>
       </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>Less than 12</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -6378,6 +6558,11 @@
       <c r="D37" t="n">
         <v>28</v>
       </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>More than 12</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -6398,6 +6583,11 @@
       <c r="D38" t="n">
         <v>15</v>
       </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>Less than 12</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -6418,6 +6608,11 @@
       <c r="D39" t="n">
         <v>9</v>
       </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>Less than 12</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -6438,6 +6633,11 @@
       <c r="D40" t="n">
         <v>8</v>
       </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>Less than 12</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -6458,6 +6658,11 @@
       <c r="D41" t="n">
         <v>7</v>
       </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>Less than 12</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -6478,6 +6683,11 @@
       <c r="D42" t="n">
         <v>7</v>
       </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>Less than 12</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -6498,6 +6708,11 @@
       <c r="D43" t="n">
         <v>7</v>
       </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>Less than 12</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -6518,6 +6733,11 @@
       <c r="D44" t="n">
         <v>5</v>
       </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>Less than 12</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -6538,6 +6758,11 @@
       <c r="D45" t="n">
         <v>5</v>
       </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>Less than 12</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -6558,6 +6783,11 @@
       <c r="D46" t="n">
         <v>4</v>
       </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>Less than 12</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -6578,6 +6808,11 @@
       <c r="D47" t="n">
         <v>3</v>
       </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>Less than 12</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -6598,6 +6833,11 @@
       <c r="D48" t="n">
         <v>2</v>
       </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>Less than 12</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -6618,6 +6858,11 @@
       <c r="D49" t="n">
         <v>1</v>
       </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>Less than 12</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -6638,6 +6883,11 @@
       <c r="D50" t="n">
         <v>93</v>
       </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>Less than 12</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -6658,6 +6908,11 @@
       <c r="D51" t="n">
         <v>1</v>
       </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>Less than 12</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -6678,6 +6933,11 @@
       <c r="D52" t="n">
         <v>20</v>
       </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>Less than 12</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -6698,6 +6958,11 @@
       <c r="D53" t="n">
         <v>14</v>
       </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>Less than 12</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -6718,6 +6983,11 @@
       <c r="D54" t="n">
         <v>6</v>
       </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>Less than 12</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -6738,6 +7008,11 @@
       <c r="D55" t="n">
         <v>4</v>
       </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>Less than 12</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -6758,6 +7033,11 @@
       <c r="D56" t="n">
         <v>4</v>
       </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>Less than 12</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -6778,6 +7058,11 @@
       <c r="D57" t="n">
         <v>3</v>
       </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>More than 12</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -6798,6 +7083,11 @@
       <c r="D58" t="n">
         <v>2</v>
       </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>Less than 12</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -6818,6 +7108,11 @@
       <c r="D59" t="n">
         <v>2</v>
       </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>Less than 12</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -6838,6 +7133,11 @@
       <c r="D60" t="n">
         <v>1</v>
       </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>Less than 12</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -6858,6 +7158,11 @@
       <c r="D61" t="n">
         <v>1</v>
       </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>Less than 12</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -6878,6 +7183,11 @@
       <c r="D62" t="n">
         <v>50</v>
       </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>Less than 12</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -6898,6 +7208,11 @@
       <c r="D63" t="n">
         <v>2</v>
       </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>Less than 12</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -6918,6 +7233,11 @@
       <c r="D64" t="n">
         <v>1</v>
       </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>Less than 12</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -6938,6 +7258,11 @@
       <c r="D65" t="n">
         <v>1</v>
       </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>Less than 12</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -6958,6 +7283,11 @@
       <c r="D66" t="n">
         <v>1</v>
       </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>Less than 12</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -6978,6 +7308,11 @@
       <c r="D67" t="n">
         <v>1</v>
       </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>More than 12</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -6998,6 +7333,11 @@
       <c r="D68" t="n">
         <v>45</v>
       </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>Less than 12</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -7018,6 +7358,11 @@
       <c r="D69" t="n">
         <v>14</v>
       </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>Less than 12</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -7038,6 +7383,11 @@
       <c r="D70" t="n">
         <v>13</v>
       </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>Less than 12</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -7058,6 +7408,11 @@
       <c r="D71" t="n">
         <v>8</v>
       </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>Less than 12</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -7078,6 +7433,11 @@
       <c r="D72" t="n">
         <v>7</v>
       </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>Less than 12</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -7098,6 +7458,11 @@
       <c r="D73" t="n">
         <v>5</v>
       </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>More than 12</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -7118,6 +7483,11 @@
       <c r="D74" t="n">
         <v>3</v>
       </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>Less than 12</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -7138,6 +7508,11 @@
       <c r="D75" t="n">
         <v>3</v>
       </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>Less than 12</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -7158,6 +7533,11 @@
       <c r="D76" t="n">
         <v>2</v>
       </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>Less than 12</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -7178,6 +7558,11 @@
       <c r="D77" t="n">
         <v>1</v>
       </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>Less than 12</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -7198,6 +7583,11 @@
       <c r="D78" t="n">
         <v>18</v>
       </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>More than 12</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -7218,6 +7608,11 @@
       <c r="D79" t="n">
         <v>4</v>
       </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>Less than 12</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -7238,6 +7633,11 @@
       <c r="D80" t="n">
         <v>3</v>
       </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>Less than 12</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -7258,6 +7658,11 @@
       <c r="D81" t="n">
         <v>1</v>
       </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>Less than 12</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -7278,6 +7683,11 @@
       <c r="D82" t="n">
         <v>1</v>
       </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>Less than 12</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -7298,6 +7708,11 @@
       <c r="D83" t="n">
         <v>11</v>
       </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>More than 12</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -7318,6 +7733,11 @@
       <c r="D84" t="n">
         <v>5</v>
       </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>Less than 12</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -7338,6 +7758,11 @@
       <c r="D85" t="n">
         <v>4</v>
       </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>Less than 12</t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -7358,6 +7783,11 @@
       <c r="D86" t="n">
         <v>1</v>
       </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>Less than 12</t>
+        </is>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -7378,6 +7808,11 @@
       <c r="D87" t="n">
         <v>1</v>
       </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>Less than 12</t>
+        </is>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -7398,6 +7833,11 @@
       <c r="D88" t="n">
         <v>7</v>
       </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>More than 12</t>
+        </is>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -7418,6 +7858,11 @@
       <c r="D89" t="n">
         <v>1</v>
       </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>Less than 12</t>
+        </is>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -7438,6 +7883,11 @@
       <c r="D90" t="n">
         <v>56</v>
       </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>Less than 12</t>
+        </is>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -7458,6 +7908,11 @@
       <c r="D91" t="n">
         <v>41</v>
       </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>More than 12</t>
+        </is>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -7478,6 +7933,11 @@
       <c r="D92" t="n">
         <v>12</v>
       </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>Less than 12</t>
+        </is>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -7498,6 +7958,11 @@
       <c r="D93" t="n">
         <v>4</v>
       </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>Less than 12</t>
+        </is>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -7518,6 +7983,11 @@
       <c r="D94" t="n">
         <v>2</v>
       </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>Less than 12</t>
+        </is>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -7538,6 +8008,11 @@
       <c r="D95" t="n">
         <v>2</v>
       </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>Less than 12</t>
+        </is>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -7558,6 +8033,11 @@
       <c r="D96" t="n">
         <v>2</v>
       </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>Less than 12</t>
+        </is>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -7578,6 +8058,11 @@
       <c r="D97" t="n">
         <v>1</v>
       </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>Less than 12</t>
+        </is>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -7598,6 +8083,11 @@
       <c r="D98" t="n">
         <v>1</v>
       </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>Less than 12</t>
+        </is>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -7618,6 +8108,11 @@
       <c r="D99" t="n">
         <v>1</v>
       </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>Less than 12</t>
+        </is>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -7638,6 +8133,11 @@
       <c r="D100" t="n">
         <v>1</v>
       </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>Less than 12</t>
+        </is>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -7658,6 +8158,11 @@
       <c r="D101" t="n">
         <v>41</v>
       </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>Less than 12</t>
+        </is>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -7678,6 +8183,11 @@
       <c r="D102" t="n">
         <v>38</v>
       </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>More than 12</t>
+        </is>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -7698,6 +8208,11 @@
       <c r="D103" t="n">
         <v>18</v>
       </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>Less than 12</t>
+        </is>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -7718,6 +8233,11 @@
       <c r="D104" t="n">
         <v>7</v>
       </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>Less than 12</t>
+        </is>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -7738,6 +8258,11 @@
       <c r="D105" t="n">
         <v>6</v>
       </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>Less than 12</t>
+        </is>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -7758,6 +8283,11 @@
       <c r="D106" t="n">
         <v>5</v>
       </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>Less than 12</t>
+        </is>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -7778,6 +8308,11 @@
       <c r="D107" t="n">
         <v>5</v>
       </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>Less than 12</t>
+        </is>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -7798,6 +8333,11 @@
       <c r="D108" t="n">
         <v>5</v>
       </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>Less than 12</t>
+        </is>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -7818,6 +8358,11 @@
       <c r="D109" t="n">
         <v>3</v>
       </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>Less than 12</t>
+        </is>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -7838,6 +8383,11 @@
       <c r="D110" t="n">
         <v>3</v>
       </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>Less than 12</t>
+        </is>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -7858,6 +8408,11 @@
       <c r="D111" t="n">
         <v>1</v>
       </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>Less than 12</t>
+        </is>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -7878,6 +8433,11 @@
       <c r="D112" t="n">
         <v>1</v>
       </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>Less than 12</t>
+        </is>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -7898,6 +8458,11 @@
       <c r="D113" t="n">
         <v>1</v>
       </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>Less than 12</t>
+        </is>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -7918,6 +8483,11 @@
       <c r="D114" t="n">
         <v>13</v>
       </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>Less than 12</t>
+        </is>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -7938,6 +8508,11 @@
       <c r="D115" t="n">
         <v>7</v>
       </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>Less than 12</t>
+        </is>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -7958,6 +8533,11 @@
       <c r="D116" t="n">
         <v>5</v>
       </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>Less than 12</t>
+        </is>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -7978,6 +8558,11 @@
       <c r="D117" t="n">
         <v>4</v>
       </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>More than 12</t>
+        </is>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -7998,6 +8583,11 @@
       <c r="D118" t="n">
         <v>3</v>
       </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>Less than 12</t>
+        </is>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -8018,6 +8608,11 @@
       <c r="D119" t="n">
         <v>3</v>
       </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>Less than 12</t>
+        </is>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -8038,6 +8633,11 @@
       <c r="D120" t="n">
         <v>1</v>
       </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>Less than 12</t>
+        </is>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -8058,6 +8658,11 @@
       <c r="D121" t="n">
         <v>1</v>
       </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>Less than 12</t>
+        </is>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -8078,6 +8683,11 @@
       <c r="D122" t="n">
         <v>71</v>
       </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>Less than 12</t>
+        </is>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -8098,6 +8708,11 @@
       <c r="D123" t="n">
         <v>25</v>
       </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>Less than 12</t>
+        </is>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -8118,6 +8733,11 @@
       <c r="D124" t="n">
         <v>23</v>
       </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>More than 12</t>
+        </is>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -8138,6 +8758,11 @@
       <c r="D125" t="n">
         <v>13</v>
       </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>Less than 12</t>
+        </is>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -8158,6 +8783,11 @@
       <c r="D126" t="n">
         <v>12</v>
       </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>Less than 12</t>
+        </is>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -8178,6 +8808,11 @@
       <c r="D127" t="n">
         <v>11</v>
       </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>Less than 12</t>
+        </is>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -8198,6 +8833,11 @@
       <c r="D128" t="n">
         <v>11</v>
       </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>Less than 12</t>
+        </is>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -8218,6 +8858,11 @@
       <c r="D129" t="n">
         <v>10</v>
       </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>Less than 12</t>
+        </is>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -8238,6 +8883,11 @@
       <c r="D130" t="n">
         <v>9</v>
       </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>Less than 12</t>
+        </is>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -8258,6 +8908,11 @@
       <c r="D131" t="n">
         <v>7</v>
       </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>Less than 12</t>
+        </is>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -8278,6 +8933,11 @@
       <c r="D132" t="n">
         <v>3</v>
       </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>Less than 12</t>
+        </is>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -8298,6 +8958,11 @@
       <c r="D133" t="n">
         <v>2</v>
       </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>Less than 12</t>
+        </is>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -8318,6 +8983,11 @@
       <c r="D134" t="n">
         <v>2</v>
       </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>Less than 12</t>
+        </is>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -8338,6 +9008,11 @@
       <c r="D135" t="n">
         <v>1</v>
       </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>Less than 12</t>
+        </is>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -8358,6 +9033,11 @@
       <c r="D136" t="n">
         <v>13</v>
       </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>Less than 12</t>
+        </is>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -8378,6 +9058,11 @@
       <c r="D137" t="n">
         <v>8</v>
       </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>More than 12</t>
+        </is>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -8398,6 +9083,11 @@
       <c r="D138" t="n">
         <v>4</v>
       </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>Less than 12</t>
+        </is>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -8418,6 +9108,11 @@
       <c r="D139" t="n">
         <v>4</v>
       </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>Less than 12</t>
+        </is>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -8438,6 +9133,11 @@
       <c r="D140" t="n">
         <v>3</v>
       </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>Less than 12</t>
+        </is>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -8458,6 +9158,11 @@
       <c r="D141" t="n">
         <v>1</v>
       </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>Less than 12</t>
+        </is>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -8478,6 +9183,11 @@
       <c r="D142" t="n">
         <v>75</v>
       </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>Less than 12</t>
+        </is>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -8498,6 +9208,11 @@
       <c r="D143" t="n">
         <v>16</v>
       </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>More than 12</t>
+        </is>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -8518,6 +9233,11 @@
       <c r="D144" t="n">
         <v>8</v>
       </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>Less than 12</t>
+        </is>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -8538,6 +9258,11 @@
       <c r="D145" t="n">
         <v>6</v>
       </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>Less than 12</t>
+        </is>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -8558,6 +9283,11 @@
       <c r="D146" t="n">
         <v>6</v>
       </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>Less than 12</t>
+        </is>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -8578,6 +9308,11 @@
       <c r="D147" t="n">
         <v>5</v>
       </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>Less than 12</t>
+        </is>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -8598,6 +9333,11 @@
       <c r="D148" t="n">
         <v>4</v>
       </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>Less than 12</t>
+        </is>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -8618,6 +9358,11 @@
       <c r="D149" t="n">
         <v>3</v>
       </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>Less than 12</t>
+        </is>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -8638,6 +9383,11 @@
       <c r="D150" t="n">
         <v>3</v>
       </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>Less than 12</t>
+        </is>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -8658,6 +9408,11 @@
       <c r="D151" t="n">
         <v>2</v>
       </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>Less than 12</t>
+        </is>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -8678,6 +9433,11 @@
       <c r="D152" t="n">
         <v>2</v>
       </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>Less than 12</t>
+        </is>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -8698,6 +9458,11 @@
       <c r="D153" t="n">
         <v>10</v>
       </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>Less than 12</t>
+        </is>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -8718,6 +9483,11 @@
       <c r="D154" t="n">
         <v>9</v>
       </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>Less than 12</t>
+        </is>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -8738,6 +9508,11 @@
       <c r="D155" t="n">
         <v>9</v>
       </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>More than 12</t>
+        </is>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -8758,6 +9533,11 @@
       <c r="D156" t="n">
         <v>8</v>
       </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>Less than 12</t>
+        </is>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -8778,6 +9558,11 @@
       <c r="D157" t="n">
         <v>8</v>
       </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>Less than 12</t>
+        </is>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -8798,6 +9583,11 @@
       <c r="D158" t="n">
         <v>6</v>
       </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>Less than 12</t>
+        </is>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
@@ -8818,6 +9608,11 @@
       <c r="D159" t="n">
         <v>4</v>
       </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>Less than 12</t>
+        </is>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -8838,6 +9633,11 @@
       <c r="D160" t="n">
         <v>4</v>
       </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>Less than 12</t>
+        </is>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -8858,6 +9658,11 @@
       <c r="D161" t="n">
         <v>3</v>
       </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>Less than 12</t>
+        </is>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -8878,6 +9683,11 @@
       <c r="D162" t="n">
         <v>3</v>
       </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>More than 12</t>
+        </is>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
@@ -8898,6 +9708,11 @@
       <c r="D163" t="n">
         <v>1</v>
       </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>Less than 12</t>
+        </is>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -8918,6 +9733,11 @@
       <c r="D164" t="n">
         <v>22</v>
       </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>More than 12</t>
+        </is>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
@@ -8938,6 +9758,11 @@
       <c r="D165" t="n">
         <v>7</v>
       </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>Less than 12</t>
+        </is>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
@@ -8958,6 +9783,11 @@
       <c r="D166" t="n">
         <v>4</v>
       </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>Less than 12</t>
+        </is>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
@@ -8978,6 +9808,11 @@
       <c r="D167" t="n">
         <v>4</v>
       </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>Less than 12</t>
+        </is>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
@@ -8998,6 +9833,11 @@
       <c r="D168" t="n">
         <v>3</v>
       </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>Less than 12</t>
+        </is>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
@@ -9018,6 +9858,11 @@
       <c r="D169" t="n">
         <v>3</v>
       </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>Less than 12</t>
+        </is>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
@@ -9038,6 +9883,11 @@
       <c r="D170" t="n">
         <v>2</v>
       </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>Less than 12</t>
+        </is>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
@@ -9058,6 +9908,11 @@
       <c r="D171" t="n">
         <v>2</v>
       </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>Less than 12</t>
+        </is>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
@@ -9078,6 +9933,11 @@
       <c r="D172" t="n">
         <v>1</v>
       </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>Less than 12</t>
+        </is>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
@@ -9098,6 +9958,11 @@
       <c r="D173" t="n">
         <v>1</v>
       </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>Less than 12</t>
+        </is>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
@@ -9118,6 +9983,11 @@
       <c r="D174" t="n">
         <v>1</v>
       </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>Less than 12</t>
+        </is>
+      </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
@@ -9138,6 +10008,11 @@
       <c r="D175" t="n">
         <v>14</v>
       </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>More than 12</t>
+        </is>
+      </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
@@ -9158,6 +10033,11 @@
       <c r="D176" t="n">
         <v>4</v>
       </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>Less than 12</t>
+        </is>
+      </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
@@ -9178,6 +10058,11 @@
       <c r="D177" t="n">
         <v>2</v>
       </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>Less than 12</t>
+        </is>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
@@ -9198,6 +10083,11 @@
       <c r="D178" t="n">
         <v>1</v>
       </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>Less than 12</t>
+        </is>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
@@ -9218,6 +10108,11 @@
       <c r="D179" t="n">
         <v>1</v>
       </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>Less than 12</t>
+        </is>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
@@ -9238,6 +10133,11 @@
       <c r="D180" t="n">
         <v>1</v>
       </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>Less than 12</t>
+        </is>
+      </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
@@ -9258,6 +10158,11 @@
       <c r="D181" t="n">
         <v>5</v>
       </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>More than 12</t>
+        </is>
+      </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
@@ -9278,6 +10183,11 @@
       <c r="D182" t="n">
         <v>3</v>
       </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>Less than 12</t>
+        </is>
+      </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
@@ -9298,6 +10208,11 @@
       <c r="D183" t="n">
         <v>1</v>
       </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>Less than 12</t>
+        </is>
+      </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
@@ -9318,6 +10233,11 @@
       <c r="D184" t="n">
         <v>18</v>
       </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>More than 12</t>
+        </is>
+      </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
@@ -9338,6 +10258,11 @@
       <c r="D185" t="n">
         <v>15</v>
       </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>Less than 12</t>
+        </is>
+      </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
@@ -9358,6 +10283,11 @@
       <c r="D186" t="n">
         <v>5</v>
       </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>Less than 12</t>
+        </is>
+      </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
@@ -9378,6 +10308,11 @@
       <c r="D187" t="n">
         <v>5</v>
       </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>Less than 12</t>
+        </is>
+      </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
@@ -9398,6 +10333,11 @@
       <c r="D188" t="n">
         <v>1</v>
       </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>Less than 12</t>
+        </is>
+      </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
@@ -9418,6 +10358,11 @@
       <c r="D189" t="n">
         <v>22</v>
       </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>Less than 12</t>
+        </is>
+      </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
@@ -9438,6 +10383,11 @@
       <c r="D190" t="n">
         <v>6</v>
       </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>Less than 12</t>
+        </is>
+      </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
@@ -9458,6 +10408,11 @@
       <c r="D191" t="n">
         <v>4</v>
       </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>Less than 12</t>
+        </is>
+      </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
@@ -9478,6 +10433,11 @@
       <c r="D192" t="n">
         <v>3</v>
       </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>Less than 12</t>
+        </is>
+      </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
@@ -9498,6 +10458,11 @@
       <c r="D193" t="n">
         <v>2</v>
       </c>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>More than 12</t>
+        </is>
+      </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
@@ -9518,6 +10483,11 @@
       <c r="D194" t="n">
         <v>1</v>
       </c>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>Less than 12</t>
+        </is>
+      </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
@@ -9538,6 +10508,11 @@
       <c r="D195" t="n">
         <v>2</v>
       </c>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>Less than 12</t>
+        </is>
+      </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
@@ -9558,6 +10533,11 @@
       <c r="D196" t="n">
         <v>4</v>
       </c>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>Less than 12</t>
+        </is>
+      </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
@@ -9578,6 +10558,11 @@
       <c r="D197" t="n">
         <v>2</v>
       </c>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>More than 12</t>
+        </is>
+      </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
@@ -9598,6 +10583,11 @@
       <c r="D198" t="n">
         <v>1</v>
       </c>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t>Less than 12</t>
+        </is>
+      </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
@@ -9618,6 +10608,11 @@
       <c r="D199" t="n">
         <v>10</v>
       </c>
+      <c r="E199" t="inlineStr">
+        <is>
+          <t>Less than 12</t>
+        </is>
+      </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
@@ -9638,6 +10633,11 @@
       <c r="D200" t="n">
         <v>4</v>
       </c>
+      <c r="E200" t="inlineStr">
+        <is>
+          <t>Less than 12</t>
+        </is>
+      </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
@@ -9658,6 +10658,11 @@
       <c r="D201" t="n">
         <v>2</v>
       </c>
+      <c r="E201" t="inlineStr">
+        <is>
+          <t>More than 12</t>
+        </is>
+      </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
@@ -9678,6 +10683,11 @@
       <c r="D202" t="n">
         <v>1</v>
       </c>
+      <c r="E202" t="inlineStr">
+        <is>
+          <t>Less than 12</t>
+        </is>
+      </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
@@ -9698,6 +10708,11 @@
       <c r="D203" t="n">
         <v>1</v>
       </c>
+      <c r="E203" t="inlineStr">
+        <is>
+          <t>Less than 12</t>
+        </is>
+      </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
@@ -9717,6 +10732,11 @@
       </c>
       <c r="D204" t="n">
         <v>1</v>
+      </c>
+      <c r="E204" t="inlineStr">
+        <is>
+          <t>Less than 12</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/BoSClean/homelessness_counts.xlsx
+++ b/BoSClean/homelessness_counts.xlsx
@@ -645,7 +645,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>143</t>
+          <t>3055</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -665,7 +665,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>143</t>
+          <t>3055</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -685,7 +685,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>143</t>
+          <t>3055</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -705,7 +705,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>143</t>
+          <t>3055</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -725,7 +725,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>143</t>
+          <t>3055</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -745,7 +745,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>143</t>
+          <t>3055</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -765,7 +765,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>143</t>
+          <t>3055</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -3486,7 +3486,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>143</t>
+          <t>3055</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -3506,7 +3506,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>143</t>
+          <t>3055</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -3526,7 +3526,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>143</t>
+          <t>3055</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -3546,7 +3546,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>143</t>
+          <t>3055</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -6322,7 +6322,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>143</t>
+          <t>3055</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -6347,7 +6347,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>143</t>
+          <t>3055</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -6372,7 +6372,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>143</t>
+          <t>3055</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -6397,7 +6397,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>143</t>
+          <t>3055</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -6422,7 +6422,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>143</t>
+          <t>3055</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -6447,7 +6447,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>143</t>
+          <t>3055</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -6472,7 +6472,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>143</t>
+          <t>3055</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -6497,7 +6497,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>143</t>
+          <t>3055</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">

--- a/BoSClean/homelessness_counts.xlsx
+++ b/BoSClean/homelessness_counts.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D141"/>
+  <dimension ref="A1:E141"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,11 @@
           <t>Count</t>
         </is>
       </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>UID</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -476,6 +481,11 @@
       <c r="D2" t="n">
         <v>131</v>
       </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>1492-OC PATH</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -496,6 +506,11 @@
       <c r="D3" t="n">
         <v>7</v>
       </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>1492-OC PATH</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -516,6 +531,11 @@
       <c r="D4" t="n">
         <v>1</v>
       </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>1492-OC PATH</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -536,6 +556,11 @@
       <c r="D5" t="n">
         <v>1</v>
       </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>1492-OC PATH</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -556,6 +581,11 @@
       <c r="D6" t="n">
         <v>1</v>
       </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>1492-OC PATH</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -576,6 +606,11 @@
       <c r="D7" t="n">
         <v>1</v>
       </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>1492-OC PATH</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -596,6 +631,11 @@
       <c r="D8" t="n">
         <v>67</v>
       </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>1492-MC PATH</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -616,6 +656,11 @@
       <c r="D9" t="n">
         <v>3</v>
       </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>1492-MC PATH</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -636,6 +681,11 @@
       <c r="D10" t="n">
         <v>1</v>
       </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>1492-MC PATH</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -656,6 +706,11 @@
       <c r="D11" t="n">
         <v>21</v>
       </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>3055-SPC</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -676,6 +731,11 @@
       <c r="D12" t="n">
         <v>13</v>
       </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>3055-SPC</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -696,6 +756,11 @@
       <c r="D13" t="n">
         <v>10</v>
       </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>3055-SPC</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -716,6 +781,11 @@
       <c r="D14" t="n">
         <v>7</v>
       </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>3055-SPC</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -736,6 +806,11 @@
       <c r="D15" t="n">
         <v>3</v>
       </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>3055-SPC</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -756,6 +831,11 @@
       <c r="D16" t="n">
         <v>3</v>
       </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>3055-SPC</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -776,6 +856,11 @@
       <c r="D17" t="n">
         <v>1</v>
       </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>3055-SPC</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -796,6 +881,11 @@
       <c r="D18" t="n">
         <v>76</v>
       </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>8319-ORRH</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -816,6 +906,11 @@
       <c r="D19" t="n">
         <v>66</v>
       </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>8319-ORRH</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -836,6 +931,11 @@
       <c r="D20" t="n">
         <v>26</v>
       </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>8319-ORRH</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -856,6 +956,11 @@
       <c r="D21" t="n">
         <v>3</v>
       </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>8319-ORRH</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -876,6 +981,11 @@
       <c r="D22" t="n">
         <v>1</v>
       </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>8319-ORRH</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -896,6 +1006,11 @@
       <c r="D23" t="n">
         <v>1</v>
       </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>8319-ORRH</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -916,6 +1031,11 @@
       <c r="D24" t="n">
         <v>40</v>
       </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>8319-Prevention</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -936,6 +1056,11 @@
       <c r="D25" t="n">
         <v>38</v>
       </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>8319-Prevention</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -956,6 +1081,11 @@
       <c r="D26" t="n">
         <v>4</v>
       </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>8319-Prevention</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -976,6 +1106,11 @@
       <c r="D27" t="n">
         <v>4</v>
       </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>8319-Prevention</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -996,6 +1131,11 @@
       <c r="D28" t="n">
         <v>4</v>
       </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>8319-Prevention</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1016,6 +1156,11 @@
       <c r="D29" t="n">
         <v>4</v>
       </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>8319-Prevention</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1036,6 +1181,11 @@
       <c r="D30" t="n">
         <v>25</v>
       </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>12312-Erin Park SHU</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1056,6 +1206,11 @@
       <c r="D31" t="n">
         <v>9</v>
       </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>12312-Erin Park SHU</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1076,6 +1231,11 @@
       <c r="D32" t="n">
         <v>7</v>
       </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>12312-Erin Park SHU</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -1096,6 +1256,11 @@
       <c r="D33" t="n">
         <v>5</v>
       </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>12312-Erin Park SHU</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -1116,6 +1281,11 @@
       <c r="D34" t="n">
         <v>4</v>
       </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>12312-Erin Park SHU</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -1136,6 +1306,11 @@
       <c r="D35" t="n">
         <v>3</v>
       </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>12312-Erin Park SHU</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -1156,6 +1331,11 @@
       <c r="D36" t="n">
         <v>2</v>
       </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>12312-Erin Park SHU</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -1176,6 +1356,11 @@
       <c r="D37" t="n">
         <v>1</v>
       </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>12312-Erin Park SHU</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -1196,6 +1381,11 @@
       <c r="D38" t="n">
         <v>1</v>
       </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>12312-Erin Park SHU</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -1216,6 +1406,11 @@
       <c r="D39" t="n">
         <v>33</v>
       </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>143-Grafton SHU</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -1236,6 +1431,11 @@
       <c r="D40" t="n">
         <v>15</v>
       </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>143-Grafton SHU</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -1256,6 +1456,11 @@
       <c r="D41" t="n">
         <v>5</v>
       </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>143-Grafton SHU</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -1276,6 +1481,11 @@
       <c r="D42" t="n">
         <v>2</v>
       </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>143-Grafton SHU</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -1296,6 +1506,11 @@
       <c r="D43" t="n">
         <v>1</v>
       </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>143-Grafton SHU</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -1316,6 +1531,11 @@
       <c r="D44" t="n">
         <v>50</v>
       </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>143-Jefferson Oaks SHU</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -1336,6 +1556,11 @@
       <c r="D45" t="n">
         <v>34</v>
       </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>143-Jefferson Oaks SHU</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -1356,6 +1581,11 @@
       <c r="D46" t="n">
         <v>11</v>
       </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>143-Jefferson Oaks SHU</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -1376,6 +1606,11 @@
       <c r="D47" t="n">
         <v>3</v>
       </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>143-Jefferson Oaks SHU</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -1396,6 +1631,11 @@
       <c r="D48" t="n">
         <v>2</v>
       </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>143-Jefferson Oaks SHU</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -1416,6 +1656,11 @@
       <c r="D49" t="n">
         <v>1</v>
       </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>143-Jefferson Oaks SHU</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -1436,6 +1681,11 @@
       <c r="D50" t="n">
         <v>14</v>
       </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>143-OCHLAP1</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -1456,6 +1706,11 @@
       <c r="D51" t="n">
         <v>9</v>
       </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>143-OCHLAP1</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -1476,6 +1731,11 @@
       <c r="D52" t="n">
         <v>3</v>
       </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>143-OCHLAP1</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -1496,6 +1756,11 @@
       <c r="D53" t="n">
         <v>1</v>
       </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>143-OCHLAP1</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -1516,6 +1781,11 @@
       <c r="D54" t="n">
         <v>9</v>
       </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>143-OCHLAP2</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -1536,6 +1806,11 @@
       <c r="D55" t="n">
         <v>8</v>
       </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>143-OCHLAP2</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -1556,6 +1831,11 @@
       <c r="D56" t="n">
         <v>3</v>
       </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>143-OCHLAP2</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -1576,6 +1856,11 @@
       <c r="D57" t="n">
         <v>2</v>
       </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>143-OCHLAP2</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -1596,6 +1881,11 @@
       <c r="D58" t="n">
         <v>4</v>
       </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>143-OCHLAP5</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -1616,6 +1906,11 @@
       <c r="D59" t="n">
         <v>4</v>
       </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>143-OCHLAP5</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -1636,6 +1931,11 @@
       <c r="D60" t="n">
         <v>45</v>
       </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>143-OLAP CG</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -1656,6 +1956,11 @@
       <c r="D61" t="n">
         <v>27</v>
       </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>143-OLAP CG</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -1676,6 +1981,11 @@
       <c r="D62" t="n">
         <v>27</v>
       </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>143-OLAP CG</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -1696,6 +2006,11 @@
       <c r="D63" t="n">
         <v>12</v>
       </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>143-OLAP CG</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -1716,6 +2031,11 @@
       <c r="D64" t="n">
         <v>5</v>
       </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>143-OLAP CG</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -1736,6 +2056,11 @@
       <c r="D65" t="n">
         <v>5</v>
       </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>143-OLAP CG</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -1756,6 +2081,11 @@
       <c r="D66" t="n">
         <v>1</v>
       </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>143-OLAP CG</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -1776,6 +2106,11 @@
       <c r="D67" t="n">
         <v>1</v>
       </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>143-OLAP CG</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -1796,6 +2131,11 @@
       <c r="D68" t="n">
         <v>49</v>
       </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>143-OLAP2</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -1816,6 +2156,11 @@
       <c r="D69" t="n">
         <v>48</v>
       </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>143-OLAP2</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -1836,6 +2181,11 @@
       <c r="D70" t="n">
         <v>12</v>
       </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>143-OLAP2</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -1856,6 +2206,11 @@
       <c r="D71" t="n">
         <v>10</v>
       </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>143-OLAP2</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -1876,6 +2231,11 @@
       <c r="D72" t="n">
         <v>9</v>
       </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>143-OLAP2</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -1896,6 +2256,11 @@
       <c r="D73" t="n">
         <v>3</v>
       </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>143-OLAP2</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -1916,6 +2281,11 @@
       <c r="D74" t="n">
         <v>1</v>
       </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>143-OLAP2</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -1936,6 +2306,11 @@
       <c r="D75" t="n">
         <v>1</v>
       </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>143-OLAP2</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -1956,6 +2331,11 @@
       <c r="D76" t="n">
         <v>1</v>
       </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>143-OLAP2</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -1976,6 +2356,11 @@
       <c r="D77" t="n">
         <v>16</v>
       </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>143-ORRH</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -1996,6 +2381,11 @@
       <c r="D78" t="n">
         <v>13</v>
       </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>143-ORRH</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -2016,6 +2406,11 @@
       <c r="D79" t="n">
         <v>8</v>
       </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>143-ORRH</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -2036,6 +2431,11 @@
       <c r="D80" t="n">
         <v>81</v>
       </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>143-ORRH2</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -2056,6 +2456,11 @@
       <c r="D81" t="n">
         <v>70</v>
       </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>143-ORRH2</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -2076,6 +2481,11 @@
       <c r="D82" t="n">
         <v>48</v>
       </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>143-ORRH2</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -2096,6 +2506,11 @@
       <c r="D83" t="n">
         <v>1</v>
       </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>143-ORRH2</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -2116,6 +2531,11 @@
       <c r="D84" t="n">
         <v>13</v>
       </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>143-Palmer Pointe SHU</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -2136,6 +2556,11 @@
       <c r="D85" t="n">
         <v>10</v>
       </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>143-Palmer Pointe SHU</t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -2156,6 +2581,11 @@
       <c r="D86" t="n">
         <v>7</v>
       </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>143-Palmer Pointe SHU</t>
+        </is>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -2176,6 +2606,11 @@
       <c r="D87" t="n">
         <v>3</v>
       </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>143-Palmer Pointe SHU</t>
+        </is>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -2196,6 +2631,11 @@
       <c r="D88" t="n">
         <v>53</v>
       </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>143-Unity Park SHU</t>
+        </is>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -2216,6 +2656,11 @@
       <c r="D89" t="n">
         <v>29</v>
       </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>143-Unity Park SHU</t>
+        </is>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -2236,6 +2681,11 @@
       <c r="D90" t="n">
         <v>25</v>
       </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>143-Unity Park SHU</t>
+        </is>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -2256,6 +2706,11 @@
       <c r="D91" t="n">
         <v>10</v>
       </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>143-Unity Park SHU</t>
+        </is>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -2276,6 +2731,11 @@
       <c r="D92" t="n">
         <v>5</v>
       </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>143-Unity Park SHU</t>
+        </is>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -2296,6 +2756,11 @@
       <c r="D93" t="n">
         <v>3</v>
       </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>143-Unity Park SHU</t>
+        </is>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -2316,6 +2781,11 @@
       <c r="D94" t="n">
         <v>2</v>
       </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>143-Unity Park SHU</t>
+        </is>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -2336,6 +2806,11 @@
       <c r="D95" t="n">
         <v>1</v>
       </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>143-Unity Park SHU</t>
+        </is>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -2356,6 +2831,11 @@
       <c r="D96" t="n">
         <v>1</v>
       </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>143-Unity Park SHU</t>
+        </is>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -2376,6 +2856,11 @@
       <c r="D97" t="n">
         <v>1</v>
       </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>143-Unity Park SHU</t>
+        </is>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -2396,6 +2881,11 @@
       <c r="D98" t="n">
         <v>41</v>
       </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>11495-WCHLAP1</t>
+        </is>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -2416,6 +2906,11 @@
       <c r="D99" t="n">
         <v>8</v>
       </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>11495-WCHLAP1</t>
+        </is>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -2436,6 +2931,11 @@
       <c r="D100" t="n">
         <v>7</v>
       </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>11495-WCHLAP1</t>
+        </is>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -2456,6 +2956,11 @@
       <c r="D101" t="n">
         <v>1</v>
       </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>11495-WCHLAP1</t>
+        </is>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -2476,6 +2981,11 @@
       <c r="D102" t="n">
         <v>1</v>
       </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>11495-WCHLAP1</t>
+        </is>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -2496,6 +3006,11 @@
       <c r="D103" t="n">
         <v>4</v>
       </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>1371-MC RRH</t>
+        </is>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -2516,6 +3031,11 @@
       <c r="D104" t="n">
         <v>3</v>
       </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>1371-MC RRH</t>
+        </is>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -2536,6 +3056,11 @@
       <c r="D105" t="n">
         <v>22</v>
       </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>1371-MC SSO</t>
+        </is>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -2556,6 +3081,11 @@
       <c r="D106" t="n">
         <v>11</v>
       </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>1371-MC SSO</t>
+        </is>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -2576,6 +3106,11 @@
       <c r="D107" t="n">
         <v>7</v>
       </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>1371-MC SSO</t>
+        </is>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -2596,6 +3131,11 @@
       <c r="D108" t="n">
         <v>4</v>
       </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>1371-MC SSO</t>
+        </is>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -2616,6 +3156,11 @@
       <c r="D109" t="n">
         <v>2</v>
       </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>1371-MC SSO</t>
+        </is>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -2636,6 +3181,11 @@
       <c r="D110" t="n">
         <v>2</v>
       </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>1371-MC SSO</t>
+        </is>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -2656,6 +3206,11 @@
       <c r="D111" t="n">
         <v>1</v>
       </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>1371-MC SSO</t>
+        </is>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -2676,6 +3231,11 @@
       <c r="D112" t="n">
         <v>1</v>
       </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>1371-MC SSO</t>
+        </is>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -2696,6 +3256,11 @@
       <c r="D113" t="n">
         <v>10</v>
       </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>1371-MCHLAP1</t>
+        </is>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -2716,6 +3281,11 @@
       <c r="D114" t="n">
         <v>9</v>
       </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>1371-MCHLAP1</t>
+        </is>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -2736,6 +3306,11 @@
       <c r="D115" t="n">
         <v>3</v>
       </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>1371-MCHLAP1</t>
+        </is>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -2756,6 +3331,11 @@
       <c r="D116" t="n">
         <v>1</v>
       </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>1371-MCHLAP1</t>
+        </is>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -2776,6 +3356,11 @@
       <c r="D117" t="n">
         <v>7</v>
       </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>1371-MCHLAP5</t>
+        </is>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -2796,6 +3381,11 @@
       <c r="D118" t="n">
         <v>1</v>
       </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>1371-MCHLAP5</t>
+        </is>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -2816,6 +3406,11 @@
       <c r="D119" t="n">
         <v>1</v>
       </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>1371-MCHLAP5</t>
+        </is>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -2836,6 +3431,11 @@
       <c r="D120" t="n">
         <v>20</v>
       </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>1371-MCHLAP6</t>
+        </is>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -2856,6 +3456,11 @@
       <c r="D121" t="n">
         <v>9</v>
       </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>1371-MCHLAP6</t>
+        </is>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -2876,6 +3481,11 @@
       <c r="D122" t="n">
         <v>8</v>
       </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>1371-MCHLAP6</t>
+        </is>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -2896,6 +3506,11 @@
       <c r="D123" t="n">
         <v>5</v>
       </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>1371-MCHLAP6</t>
+        </is>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -2916,6 +3531,11 @@
       <c r="D124" t="n">
         <v>2</v>
       </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>1371-MCHLAP6</t>
+        </is>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -2936,6 +3556,11 @@
       <c r="D125" t="n">
         <v>17</v>
       </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>1371-MLAP1</t>
+        </is>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -2956,6 +3581,11 @@
       <c r="D126" t="n">
         <v>9</v>
       </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>1371-MLAP1</t>
+        </is>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -2976,6 +3606,11 @@
       <c r="D127" t="n">
         <v>6</v>
       </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>1371-MLAP1</t>
+        </is>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -2996,6 +3631,11 @@
       <c r="D128" t="n">
         <v>4</v>
       </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>1371-MLAP1</t>
+        </is>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -3016,6 +3656,11 @@
       <c r="D129" t="n">
         <v>1</v>
       </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>1371-MLAP1</t>
+        </is>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -3036,6 +3681,11 @@
       <c r="D130" t="n">
         <v>1</v>
       </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>1371-MLAP1</t>
+        </is>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -3056,6 +3706,11 @@
       <c r="D131" t="n">
         <v>2</v>
       </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>1371-MLAP2</t>
+        </is>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -3076,6 +3731,11 @@
       <c r="D132" t="n">
         <v>2</v>
       </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>1371-MLAP6</t>
+        </is>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -3096,6 +3756,11 @@
       <c r="D133" t="n">
         <v>2</v>
       </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>1371-MLAP6</t>
+        </is>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -3116,6 +3781,11 @@
       <c r="D134" t="n">
         <v>1</v>
       </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>1371-MLAP6</t>
+        </is>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -3136,6 +3806,11 @@
       <c r="D135" t="n">
         <v>1</v>
       </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>1371-MLAP6</t>
+        </is>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -3156,6 +3831,11 @@
       <c r="D136" t="n">
         <v>1</v>
       </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>1371-MLAP6</t>
+        </is>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -3176,6 +3856,11 @@
       <c r="D137" t="n">
         <v>9</v>
       </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>1371-MLAP7</t>
+        </is>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -3196,6 +3881,11 @@
       <c r="D138" t="n">
         <v>4</v>
       </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>1371-MLAP7</t>
+        </is>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -3216,6 +3906,11 @@
       <c r="D139" t="n">
         <v>3</v>
       </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>1371-MLAP7</t>
+        </is>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -3236,6 +3931,11 @@
       <c r="D140" t="n">
         <v>2</v>
       </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>1371-MLAP7</t>
+        </is>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -3255,6 +3955,11 @@
       </c>
       <c r="D141" t="n">
         <v>1</v>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>1371-MLAP7</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -3268,7 +3973,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D117"/>
+  <dimension ref="A1:E117"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3297,6 +4002,11 @@
           <t>Count</t>
         </is>
       </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>UID</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -3317,6 +4027,11 @@
       <c r="D2" t="n">
         <v>69</v>
       </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>1492-OC PATH</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -3337,6 +4052,11 @@
       <c r="D3" t="n">
         <v>36</v>
       </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>1492-OC PATH</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -3357,6 +4077,11 @@
       <c r="D4" t="n">
         <v>23</v>
       </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>1492-OC PATH</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -3377,6 +4102,11 @@
       <c r="D5" t="n">
         <v>13</v>
       </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>1492-OC PATH</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -3397,6 +4127,11 @@
       <c r="D6" t="n">
         <v>1</v>
       </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>1492-OC PATH</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -3417,6 +4152,11 @@
       <c r="D7" t="n">
         <v>30</v>
       </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>1492-MC PATH</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -3437,6 +4177,11 @@
       <c r="D8" t="n">
         <v>23</v>
       </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>1492-MC PATH</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -3457,6 +4202,11 @@
       <c r="D9" t="n">
         <v>11</v>
       </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>1492-MC PATH</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -3477,6 +4227,11 @@
       <c r="D10" t="n">
         <v>7</v>
       </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>1492-MC PATH</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -3497,6 +4252,11 @@
       <c r="D11" t="n">
         <v>27</v>
       </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>3055-SPC</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -3517,6 +4277,11 @@
       <c r="D12" t="n">
         <v>18</v>
       </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>3055-SPC</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3537,6 +4302,11 @@
       <c r="D13" t="n">
         <v>9</v>
       </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>3055-SPC</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -3557,6 +4327,11 @@
       <c r="D14" t="n">
         <v>4</v>
       </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>3055-SPC</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -3577,6 +4352,11 @@
       <c r="D15" t="n">
         <v>72</v>
       </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>8319-ORRH</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -3597,6 +4377,11 @@
       <c r="D16" t="n">
         <v>57</v>
       </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>8319-ORRH</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -3617,6 +4402,11 @@
       <c r="D17" t="n">
         <v>24</v>
       </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>8319-ORRH</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -3637,6 +4427,11 @@
       <c r="D18" t="n">
         <v>17</v>
       </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>8319-ORRH</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -3657,6 +4452,11 @@
       <c r="D19" t="n">
         <v>3</v>
       </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>8319-ORRH</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -3677,6 +4477,11 @@
       <c r="D20" t="n">
         <v>93</v>
       </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>8319-Prevention</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -3697,6 +4502,11 @@
       <c r="D21" t="n">
         <v>1</v>
       </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>8319-Prevention</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -3717,6 +4527,11 @@
       <c r="D22" t="n">
         <v>17</v>
       </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>12312-Erin Park SHU</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -3737,6 +4552,11 @@
       <c r="D23" t="n">
         <v>14</v>
       </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>12312-Erin Park SHU</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -3757,6 +4577,11 @@
       <c r="D24" t="n">
         <v>13</v>
       </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>12312-Erin Park SHU</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -3777,6 +4602,11 @@
       <c r="D25" t="n">
         <v>11</v>
       </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>12312-Erin Park SHU</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -3797,6 +4627,11 @@
       <c r="D26" t="n">
         <v>1</v>
       </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>12312-Erin Park SHU</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -3817,6 +4652,11 @@
       <c r="D27" t="n">
         <v>1</v>
       </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>12312-Erin Park SHU</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -3837,6 +4677,11 @@
       <c r="D28" t="n">
         <v>50</v>
       </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>143-Grafton SHU</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -3857,6 +4702,11 @@
       <c r="D29" t="n">
         <v>6</v>
       </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>143-Grafton SHU</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -3877,6 +4727,11 @@
       <c r="D30" t="n">
         <v>45</v>
       </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>143-Jefferson Oaks SHU</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -3897,6 +4752,11 @@
       <c r="D31" t="n">
         <v>23</v>
       </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>143-Jefferson Oaks SHU</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -3917,6 +4777,11 @@
       <c r="D32" t="n">
         <v>14</v>
       </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>143-Jefferson Oaks SHU</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -3937,6 +4802,11 @@
       <c r="D33" t="n">
         <v>13</v>
       </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>143-Jefferson Oaks SHU</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -3957,6 +4827,11 @@
       <c r="D34" t="n">
         <v>4</v>
       </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>143-Jefferson Oaks SHU</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -3977,6 +4852,11 @@
       <c r="D35" t="n">
         <v>2</v>
       </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>143-Jefferson Oaks SHU</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -3997,6 +4877,11 @@
       <c r="D36" t="n">
         <v>14</v>
       </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>143-OCHLAP1</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -4017,6 +4902,11 @@
       <c r="D37" t="n">
         <v>6</v>
       </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>143-OCHLAP1</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -4037,6 +4927,11 @@
       <c r="D38" t="n">
         <v>4</v>
       </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>143-OCHLAP1</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -4057,6 +4952,11 @@
       <c r="D39" t="n">
         <v>2</v>
       </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>143-OCHLAP1</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -4077,6 +4977,11 @@
       <c r="D40" t="n">
         <v>1</v>
       </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>143-OCHLAP1</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -4097,6 +5002,11 @@
       <c r="D41" t="n">
         <v>10</v>
       </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>143-OCHLAP2</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -4117,6 +5027,11 @@
       <c r="D42" t="n">
         <v>5</v>
       </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>143-OCHLAP2</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -4137,6 +5052,11 @@
       <c r="D43" t="n">
         <v>5</v>
       </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>143-OCHLAP2</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -4157,6 +5077,11 @@
       <c r="D44" t="n">
         <v>1</v>
       </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>143-OCHLAP2</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -4177,6 +5102,11 @@
       <c r="D45" t="n">
         <v>1</v>
       </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>143-OCHLAP2</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -4197,6 +5127,11 @@
       <c r="D46" t="n">
         <v>3</v>
       </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>143-OCHLAP5</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -4217,6 +5152,11 @@
       <c r="D47" t="n">
         <v>3</v>
       </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>143-OCHLAP5</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -4237,6 +5177,11 @@
       <c r="D48" t="n">
         <v>2</v>
       </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>143-OCHLAP5</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -4257,6 +5202,11 @@
       <c r="D49" t="n">
         <v>56</v>
       </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>143-OLAP CG</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -4277,6 +5227,11 @@
       <c r="D50" t="n">
         <v>46</v>
       </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>143-OLAP CG</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -4297,6 +5252,11 @@
       <c r="D51" t="n">
         <v>10</v>
       </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>143-OLAP CG</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -4317,6 +5277,11 @@
       <c r="D52" t="n">
         <v>8</v>
       </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>143-OLAP CG</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -4337,6 +5302,11 @@
       <c r="D53" t="n">
         <v>3</v>
       </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>143-OLAP CG</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -4357,6 +5327,11 @@
       <c r="D54" t="n">
         <v>63</v>
       </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>143-OLAP2</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -4377,6 +5352,11 @@
       <c r="D55" t="n">
         <v>41</v>
       </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>143-OLAP2</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -4397,6 +5377,11 @@
       <c r="D56" t="n">
         <v>17</v>
       </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>143-OLAP2</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -4417,6 +5402,11 @@
       <c r="D57" t="n">
         <v>8</v>
       </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>143-OLAP2</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -4437,6 +5427,11 @@
       <c r="D58" t="n">
         <v>5</v>
       </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>143-OLAP2</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -4457,6 +5452,11 @@
       <c r="D59" t="n">
         <v>17</v>
       </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>143-ORRH</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -4477,6 +5477,11 @@
       <c r="D60" t="n">
         <v>13</v>
       </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>143-ORRH</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -4497,6 +5502,11 @@
       <c r="D61" t="n">
         <v>6</v>
       </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>143-ORRH</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -4517,6 +5527,11 @@
       <c r="D62" t="n">
         <v>1</v>
       </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>143-ORRH</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -4537,6 +5552,11 @@
       <c r="D63" t="n">
         <v>71</v>
       </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>143-ORRH2</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -4557,6 +5577,11 @@
       <c r="D64" t="n">
         <v>67</v>
       </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>143-ORRH2</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -4577,6 +5602,11 @@
       <c r="D65" t="n">
         <v>24</v>
       </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>143-ORRH2</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -4597,6 +5627,11 @@
       <c r="D66" t="n">
         <v>22</v>
       </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>143-ORRH2</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -4617,6 +5652,11 @@
       <c r="D67" t="n">
         <v>16</v>
       </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>143-ORRH2</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -4637,6 +5677,11 @@
       <c r="D68" t="n">
         <v>13</v>
       </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>143-Palmer Pointe SHU</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -4657,6 +5702,11 @@
       <c r="D69" t="n">
         <v>10</v>
       </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>143-Palmer Pointe SHU</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -4677,6 +5727,11 @@
       <c r="D70" t="n">
         <v>7</v>
       </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>143-Palmer Pointe SHU</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -4697,6 +5752,11 @@
       <c r="D71" t="n">
         <v>2</v>
       </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>143-Palmer Pointe SHU</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -4717,6 +5777,11 @@
       <c r="D72" t="n">
         <v>1</v>
       </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>143-Palmer Pointe SHU</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -4737,6 +5802,11 @@
       <c r="D73" t="n">
         <v>74</v>
       </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>143-Unity Park SHU</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -4757,6 +5827,11 @@
       <c r="D74" t="n">
         <v>27</v>
       </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>143-Unity Park SHU</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -4777,6 +5852,11 @@
       <c r="D75" t="n">
         <v>18</v>
       </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>143-Unity Park SHU</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -4797,6 +5877,11 @@
       <c r="D76" t="n">
         <v>8</v>
       </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>143-Unity Park SHU</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -4817,6 +5902,11 @@
       <c r="D77" t="n">
         <v>3</v>
       </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>143-Unity Park SHU</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -4837,6 +5927,11 @@
       <c r="D78" t="n">
         <v>17</v>
       </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>11495-WCHLAP1</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -4857,6 +5952,11 @@
       <c r="D79" t="n">
         <v>16</v>
       </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>11495-WCHLAP1</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -4877,6 +5977,11 @@
       <c r="D80" t="n">
         <v>11</v>
       </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>11495-WCHLAP1</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -4897,6 +6002,11 @@
       <c r="D81" t="n">
         <v>10</v>
       </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>11495-WCHLAP1</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -4917,6 +6027,11 @@
       <c r="D82" t="n">
         <v>4</v>
       </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>11495-WCHLAP1</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -4937,6 +6052,11 @@
       <c r="D83" t="n">
         <v>4</v>
       </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>1371-MC RRH</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -4957,6 +6077,11 @@
       <c r="D84" t="n">
         <v>3</v>
       </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>1371-MC RRH</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -4977,6 +6102,11 @@
       <c r="D85" t="n">
         <v>15</v>
       </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>1371-MC SSO</t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -4997,6 +6127,11 @@
       <c r="D86" t="n">
         <v>15</v>
       </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>1371-MC SSO</t>
+        </is>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -5017,6 +6152,11 @@
       <c r="D87" t="n">
         <v>11</v>
       </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>1371-MC SSO</t>
+        </is>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -5037,6 +6177,11 @@
       <c r="D88" t="n">
         <v>7</v>
       </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>1371-MC SSO</t>
+        </is>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -5057,6 +6202,11 @@
       <c r="D89" t="n">
         <v>2</v>
       </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>1371-MC SSO</t>
+        </is>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -5077,6 +6227,11 @@
       <c r="D90" t="n">
         <v>12</v>
       </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>1371-MCHLAP1</t>
+        </is>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -5097,6 +6252,11 @@
       <c r="D91" t="n">
         <v>4</v>
       </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>1371-MCHLAP1</t>
+        </is>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -5117,6 +6277,11 @@
       <c r="D92" t="n">
         <v>4</v>
       </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>1371-MCHLAP1</t>
+        </is>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -5137,6 +6302,11 @@
       <c r="D93" t="n">
         <v>3</v>
       </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>1371-MCHLAP1</t>
+        </is>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -5157,6 +6327,11 @@
       <c r="D94" t="n">
         <v>7</v>
       </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>1371-MCHLAP5</t>
+        </is>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -5177,6 +6352,11 @@
       <c r="D95" t="n">
         <v>1</v>
       </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>1371-MCHLAP5</t>
+        </is>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -5197,6 +6377,11 @@
       <c r="D96" t="n">
         <v>1</v>
       </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>1371-MCHLAP5</t>
+        </is>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -5217,6 +6402,11 @@
       <c r="D97" t="n">
         <v>15</v>
       </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>1371-MCHLAP6</t>
+        </is>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -5237,6 +6427,11 @@
       <c r="D98" t="n">
         <v>12</v>
       </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>1371-MCHLAP6</t>
+        </is>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -5257,6 +6452,11 @@
       <c r="D99" t="n">
         <v>11</v>
       </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>1371-MCHLAP6</t>
+        </is>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -5277,6 +6477,11 @@
       <c r="D100" t="n">
         <v>5</v>
       </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>1371-MCHLAP6</t>
+        </is>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -5297,6 +6502,11 @@
       <c r="D101" t="n">
         <v>1</v>
       </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>1371-MCHLAP6</t>
+        </is>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -5317,6 +6527,11 @@
       <c r="D102" t="n">
         <v>22</v>
       </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>1371-MLAP1</t>
+        </is>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -5337,6 +6552,11 @@
       <c r="D103" t="n">
         <v>9</v>
       </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>1371-MLAP1</t>
+        </is>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -5357,6 +6577,11 @@
       <c r="D104" t="n">
         <v>4</v>
       </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>1371-MLAP1</t>
+        </is>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -5377,6 +6602,11 @@
       <c r="D105" t="n">
         <v>2</v>
       </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>1371-MLAP1</t>
+        </is>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -5397,6 +6627,11 @@
       <c r="D106" t="n">
         <v>1</v>
       </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>1371-MLAP1</t>
+        </is>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -5417,6 +6652,11 @@
       <c r="D107" t="n">
         <v>1</v>
       </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>1371-MLAP2</t>
+        </is>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -5437,6 +6677,11 @@
       <c r="D108" t="n">
         <v>1</v>
       </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>1371-MLAP2</t>
+        </is>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -5457,6 +6702,11 @@
       <c r="D109" t="n">
         <v>4</v>
       </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>1371-MLAP6</t>
+        </is>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -5477,6 +6727,11 @@
       <c r="D110" t="n">
         <v>1</v>
       </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>1371-MLAP6</t>
+        </is>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -5497,6 +6752,11 @@
       <c r="D111" t="n">
         <v>1</v>
       </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>1371-MLAP6</t>
+        </is>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -5517,6 +6777,11 @@
       <c r="D112" t="n">
         <v>1</v>
       </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>1371-MLAP6</t>
+        </is>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -5537,6 +6802,11 @@
       <c r="D113" t="n">
         <v>10</v>
       </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>1371-MLAP7</t>
+        </is>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -5557,6 +6827,11 @@
       <c r="D114" t="n">
         <v>4</v>
       </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>1371-MLAP7</t>
+        </is>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -5577,6 +6852,11 @@
       <c r="D115" t="n">
         <v>2</v>
       </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>1371-MLAP7</t>
+        </is>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -5597,6 +6877,11 @@
       <c r="D116" t="n">
         <v>2</v>
       </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>1371-MLAP7</t>
+        </is>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -5616,6 +6901,11 @@
       </c>
       <c r="D117" t="n">
         <v>1</v>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>1371-MLAP7</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -5629,7 +6919,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E204"/>
+  <dimension ref="A1:F204"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5663,6 +6953,11 @@
           <t>Category</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>UID</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -5688,6 +6983,11 @@
           <t>More than 12</t>
         </is>
       </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1492-OC PATH</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -5713,6 +7013,11 @@
           <t>Less than 12</t>
         </is>
       </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1492-OC PATH</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -5738,6 +7043,11 @@
           <t>Less than 12</t>
         </is>
       </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1492-OC PATH</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -5763,6 +7073,11 @@
           <t>Less than 12</t>
         </is>
       </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1492-OC PATH</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -5788,6 +7103,11 @@
           <t>Less than 12</t>
         </is>
       </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1492-OC PATH</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -5813,6 +7133,11 @@
           <t>Less than 12</t>
         </is>
       </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1492-OC PATH</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -5838,6 +7163,11 @@
           <t>Less than 12</t>
         </is>
       </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1492-OC PATH</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -5863,6 +7193,11 @@
           <t>Less than 12</t>
         </is>
       </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1492-OC PATH</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -5888,6 +7223,11 @@
           <t>Less than 12</t>
         </is>
       </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1492-OC PATH</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -5913,6 +7253,11 @@
           <t>Less than 12</t>
         </is>
       </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1492-OC PATH</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -5938,6 +7283,11 @@
           <t>Less than 12</t>
         </is>
       </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1492-OC PATH</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -5963,6 +7313,11 @@
           <t>Less than 12</t>
         </is>
       </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1492-OC PATH</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -5988,6 +7343,11 @@
           <t>Less than 12</t>
         </is>
       </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1492-OC PATH</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -6013,6 +7373,11 @@
           <t>Less than 12</t>
         </is>
       </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1492-OC PATH</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -6038,6 +7403,11 @@
           <t>More than 12</t>
         </is>
       </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1492-MC PATH</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -6063,6 +7433,11 @@
           <t>Less than 12</t>
         </is>
       </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1492-MC PATH</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -6088,6 +7463,11 @@
           <t>Less than 12</t>
         </is>
       </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1492-MC PATH</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -6113,6 +7493,11 @@
           <t>Less than 12</t>
         </is>
       </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1492-MC PATH</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -6138,6 +7523,11 @@
           <t>Less than 12</t>
         </is>
       </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1492-MC PATH</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -6163,6 +7553,11 @@
           <t>Less than 12</t>
         </is>
       </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1492-MC PATH</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -6188,6 +7583,11 @@
           <t>Less than 12</t>
         </is>
       </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1492-MC PATH</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -6213,6 +7613,11 @@
           <t>Less than 12</t>
         </is>
       </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1492-MC PATH</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -6238,6 +7643,11 @@
           <t>Less than 12</t>
         </is>
       </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1492-MC PATH</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -6263,6 +7673,11 @@
           <t>Less than 12</t>
         </is>
       </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1492-MC PATH</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -6288,6 +7703,11 @@
           <t>Less than 12</t>
         </is>
       </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1492-MC PATH</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -6313,6 +7733,11 @@
           <t>Less than 12</t>
         </is>
       </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1492-MC PATH</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -6338,6 +7763,11 @@
           <t>Less than 12</t>
         </is>
       </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3055-SPC</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -6363,6 +7793,11 @@
           <t>More than 12</t>
         </is>
       </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3055-SPC</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -6388,6 +7823,11 @@
           <t>Less than 12</t>
         </is>
       </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3055-SPC</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -6413,6 +7853,11 @@
           <t>Less than 12</t>
         </is>
       </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3055-SPC</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -6438,6 +7883,11 @@
           <t>Less than 12</t>
         </is>
       </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3055-SPC</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -6463,6 +7913,11 @@
           <t>Less than 12</t>
         </is>
       </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3055-SPC</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -6488,6 +7943,11 @@
           <t>Less than 12</t>
         </is>
       </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3055-SPC</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -6513,6 +7973,11 @@
           <t>Less than 12</t>
         </is>
       </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3055-SPC</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -6538,6 +8003,11 @@
           <t>Less than 12</t>
         </is>
       </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>8319-ORRH</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -6563,6 +8033,11 @@
           <t>More than 12</t>
         </is>
       </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>8319-ORRH</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -6588,6 +8063,11 @@
           <t>Less than 12</t>
         </is>
       </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>8319-ORRH</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -6613,6 +8093,11 @@
           <t>Less than 12</t>
         </is>
       </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>8319-ORRH</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -6638,6 +8123,11 @@
           <t>Less than 12</t>
         </is>
       </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>8319-ORRH</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -6663,6 +8153,11 @@
           <t>Less than 12</t>
         </is>
       </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>8319-ORRH</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -6688,6 +8183,11 @@
           <t>Less than 12</t>
         </is>
       </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>8319-ORRH</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -6713,6 +8213,11 @@
           <t>Less than 12</t>
         </is>
       </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>8319-ORRH</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -6738,6 +8243,11 @@
           <t>Less than 12</t>
         </is>
       </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>8319-ORRH</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -6763,6 +8273,11 @@
           <t>Less than 12</t>
         </is>
       </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>8319-ORRH</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -6788,6 +8303,11 @@
           <t>Less than 12</t>
         </is>
       </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>8319-ORRH</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -6813,6 +8333,11 @@
           <t>Less than 12</t>
         </is>
       </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>8319-ORRH</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -6838,6 +8363,11 @@
           <t>Less than 12</t>
         </is>
       </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>8319-ORRH</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -6863,6 +8393,11 @@
           <t>Less than 12</t>
         </is>
       </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>8319-ORRH</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -6888,6 +8423,11 @@
           <t>Less than 12</t>
         </is>
       </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>8319-Prevention</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -6913,6 +8453,11 @@
           <t>Less than 12</t>
         </is>
       </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>8319-Prevention</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -6938,6 +8483,11 @@
           <t>Less than 12</t>
         </is>
       </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>12312-Erin Park SHU</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -6963,6 +8513,11 @@
           <t>Less than 12</t>
         </is>
       </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>12312-Erin Park SHU</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -6988,6 +8543,11 @@
           <t>Less than 12</t>
         </is>
       </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>12312-Erin Park SHU</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -7013,6 +8573,11 @@
           <t>Less than 12</t>
         </is>
       </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>12312-Erin Park SHU</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -7038,6 +8603,11 @@
           <t>Less than 12</t>
         </is>
       </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>12312-Erin Park SHU</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -7063,6 +8633,11 @@
           <t>More than 12</t>
         </is>
       </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>12312-Erin Park SHU</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -7088,6 +8663,11 @@
           <t>Less than 12</t>
         </is>
       </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>12312-Erin Park SHU</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -7113,6 +8693,11 @@
           <t>Less than 12</t>
         </is>
       </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>12312-Erin Park SHU</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -7138,6 +8723,11 @@
           <t>Less than 12</t>
         </is>
       </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>12312-Erin Park SHU</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -7163,6 +8753,11 @@
           <t>Less than 12</t>
         </is>
       </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>12312-Erin Park SHU</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -7188,6 +8783,11 @@
           <t>Less than 12</t>
         </is>
       </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>143-Grafton SHU</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -7213,6 +8813,11 @@
           <t>Less than 12</t>
         </is>
       </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>143-Grafton SHU</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -7238,6 +8843,11 @@
           <t>Less than 12</t>
         </is>
       </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>143-Grafton SHU</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -7263,6 +8873,11 @@
           <t>Less than 12</t>
         </is>
       </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>143-Grafton SHU</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -7288,6 +8903,11 @@
           <t>Less than 12</t>
         </is>
       </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>143-Grafton SHU</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -7313,6 +8933,11 @@
           <t>More than 12</t>
         </is>
       </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>143-Grafton SHU</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -7338,6 +8963,11 @@
           <t>Less than 12</t>
         </is>
       </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>143-Jefferson Oaks SHU</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -7363,6 +8993,11 @@
           <t>Less than 12</t>
         </is>
       </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>143-Jefferson Oaks SHU</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -7388,6 +9023,11 @@
           <t>Less than 12</t>
         </is>
       </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>143-Jefferson Oaks SHU</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -7413,6 +9053,11 @@
           <t>Less than 12</t>
         </is>
       </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>143-Jefferson Oaks SHU</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -7438,6 +9083,11 @@
           <t>Less than 12</t>
         </is>
       </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>143-Jefferson Oaks SHU</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -7463,6 +9113,11 @@
           <t>More than 12</t>
         </is>
       </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>143-Jefferson Oaks SHU</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -7488,6 +9143,11 @@
           <t>Less than 12</t>
         </is>
       </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>143-Jefferson Oaks SHU</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -7513,6 +9173,11 @@
           <t>Less than 12</t>
         </is>
       </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>143-Jefferson Oaks SHU</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -7538,6 +9203,11 @@
           <t>Less than 12</t>
         </is>
       </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>143-Jefferson Oaks SHU</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -7563,6 +9233,11 @@
           <t>Less than 12</t>
         </is>
       </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>143-Jefferson Oaks SHU</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -7588,6 +9263,11 @@
           <t>More than 12</t>
         </is>
       </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>143-OCHLAP1</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -7613,6 +9293,11 @@
           <t>Less than 12</t>
         </is>
       </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>143-OCHLAP1</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -7638,6 +9323,11 @@
           <t>Less than 12</t>
         </is>
       </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>143-OCHLAP1</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -7663,6 +9353,11 @@
           <t>Less than 12</t>
         </is>
       </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>143-OCHLAP1</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -7688,6 +9383,11 @@
           <t>Less than 12</t>
         </is>
       </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>143-OCHLAP1</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -7713,6 +9413,11 @@
           <t>More than 12</t>
         </is>
       </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>143-OCHLAP2</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -7738,6 +9443,11 @@
           <t>Less than 12</t>
         </is>
       </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>143-OCHLAP2</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -7763,6 +9473,11 @@
           <t>Less than 12</t>
         </is>
       </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>143-OCHLAP2</t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -7788,6 +9503,11 @@
           <t>Less than 12</t>
         </is>
       </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>143-OCHLAP2</t>
+        </is>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -7813,6 +9533,11 @@
           <t>Less than 12</t>
         </is>
       </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>143-OCHLAP2</t>
+        </is>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -7838,6 +9563,11 @@
           <t>More than 12</t>
         </is>
       </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>143-OCHLAP5</t>
+        </is>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -7863,6 +9593,11 @@
           <t>Less than 12</t>
         </is>
       </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>143-OCHLAP5</t>
+        </is>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -7888,6 +9623,11 @@
           <t>Less than 12</t>
         </is>
       </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>143-OLAP CG</t>
+        </is>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -7913,6 +9653,11 @@
           <t>More than 12</t>
         </is>
       </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>143-OLAP CG</t>
+        </is>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -7938,6 +9683,11 @@
           <t>Less than 12</t>
         </is>
       </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>143-OLAP CG</t>
+        </is>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -7963,6 +9713,11 @@
           <t>Less than 12</t>
         </is>
       </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>143-OLAP CG</t>
+        </is>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -7988,6 +9743,11 @@
           <t>Less than 12</t>
         </is>
       </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>143-OLAP CG</t>
+        </is>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -8013,6 +9773,11 @@
           <t>Less than 12</t>
         </is>
       </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>143-OLAP CG</t>
+        </is>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -8038,6 +9803,11 @@
           <t>Less than 12</t>
         </is>
       </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>143-OLAP CG</t>
+        </is>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -8063,6 +9833,11 @@
           <t>Less than 12</t>
         </is>
       </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>143-OLAP CG</t>
+        </is>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -8088,6 +9863,11 @@
           <t>Less than 12</t>
         </is>
       </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>143-OLAP CG</t>
+        </is>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -8113,6 +9893,11 @@
           <t>Less than 12</t>
         </is>
       </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>143-OLAP CG</t>
+        </is>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -8138,6 +9923,11 @@
           <t>Less than 12</t>
         </is>
       </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>143-OLAP CG</t>
+        </is>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -8163,6 +9953,11 @@
           <t>Less than 12</t>
         </is>
       </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>143-OLAP2</t>
+        </is>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -8188,6 +9983,11 @@
           <t>More than 12</t>
         </is>
       </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>143-OLAP2</t>
+        </is>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -8213,6 +10013,11 @@
           <t>Less than 12</t>
         </is>
       </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>143-OLAP2</t>
+        </is>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -8238,6 +10043,11 @@
           <t>Less than 12</t>
         </is>
       </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>143-OLAP2</t>
+        </is>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -8263,6 +10073,11 @@
           <t>Less than 12</t>
         </is>
       </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>143-OLAP2</t>
+        </is>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -8288,6 +10103,11 @@
           <t>Less than 12</t>
         </is>
       </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>143-OLAP2</t>
+        </is>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -8313,6 +10133,11 @@
           <t>Less than 12</t>
         </is>
       </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>143-OLAP2</t>
+        </is>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -8338,6 +10163,11 @@
           <t>Less than 12</t>
         </is>
       </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>143-OLAP2</t>
+        </is>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -8363,6 +10193,11 @@
           <t>Less than 12</t>
         </is>
       </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>143-OLAP2</t>
+        </is>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -8388,6 +10223,11 @@
           <t>Less than 12</t>
         </is>
       </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>143-OLAP2</t>
+        </is>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -8413,6 +10253,11 @@
           <t>Less than 12</t>
         </is>
       </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>143-OLAP2</t>
+        </is>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -8438,6 +10283,11 @@
           <t>Less than 12</t>
         </is>
       </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>143-OLAP2</t>
+        </is>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -8463,6 +10313,11 @@
           <t>Less than 12</t>
         </is>
       </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>143-OLAP2</t>
+        </is>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -8488,6 +10343,11 @@
           <t>Less than 12</t>
         </is>
       </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>143-ORRH</t>
+        </is>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -8513,6 +10373,11 @@
           <t>Less than 12</t>
         </is>
       </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>143-ORRH</t>
+        </is>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -8538,6 +10403,11 @@
           <t>Less than 12</t>
         </is>
       </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>143-ORRH</t>
+        </is>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -8563,6 +10433,11 @@
           <t>More than 12</t>
         </is>
       </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>143-ORRH</t>
+        </is>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -8588,6 +10463,11 @@
           <t>Less than 12</t>
         </is>
       </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>143-ORRH</t>
+        </is>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -8613,6 +10493,11 @@
           <t>Less than 12</t>
         </is>
       </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>143-ORRH</t>
+        </is>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -8638,6 +10523,11 @@
           <t>Less than 12</t>
         </is>
       </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>143-ORRH</t>
+        </is>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -8663,6 +10553,11 @@
           <t>Less than 12</t>
         </is>
       </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>143-ORRH</t>
+        </is>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -8688,6 +10583,11 @@
           <t>Less than 12</t>
         </is>
       </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>143-ORRH2</t>
+        </is>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -8713,6 +10613,11 @@
           <t>Less than 12</t>
         </is>
       </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>143-ORRH2</t>
+        </is>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -8738,6 +10643,11 @@
           <t>More than 12</t>
         </is>
       </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>143-ORRH2</t>
+        </is>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -8763,6 +10673,11 @@
           <t>Less than 12</t>
         </is>
       </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>143-ORRH2</t>
+        </is>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -8788,6 +10703,11 @@
           <t>Less than 12</t>
         </is>
       </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>143-ORRH2</t>
+        </is>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -8813,6 +10733,11 @@
           <t>Less than 12</t>
         </is>
       </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>143-ORRH2</t>
+        </is>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -8838,6 +10763,11 @@
           <t>Less than 12</t>
         </is>
       </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>143-ORRH2</t>
+        </is>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -8863,6 +10793,11 @@
           <t>Less than 12</t>
         </is>
       </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>143-ORRH2</t>
+        </is>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -8888,6 +10823,11 @@
           <t>Less than 12</t>
         </is>
       </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>143-ORRH2</t>
+        </is>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -8913,6 +10853,11 @@
           <t>Less than 12</t>
         </is>
       </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>143-ORRH2</t>
+        </is>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -8938,6 +10883,11 @@
           <t>Less than 12</t>
         </is>
       </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>143-ORRH2</t>
+        </is>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -8963,6 +10913,11 @@
           <t>Less than 12</t>
         </is>
       </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>143-ORRH2</t>
+        </is>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -8988,6 +10943,11 @@
           <t>Less than 12</t>
         </is>
       </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>143-ORRH2</t>
+        </is>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -9013,6 +10973,11 @@
           <t>Less than 12</t>
         </is>
       </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>143-ORRH2</t>
+        </is>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -9038,6 +11003,11 @@
           <t>Less than 12</t>
         </is>
       </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>143-Palmer Pointe SHU</t>
+        </is>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -9063,6 +11033,11 @@
           <t>More than 12</t>
         </is>
       </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>143-Palmer Pointe SHU</t>
+        </is>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -9088,6 +11063,11 @@
           <t>Less than 12</t>
         </is>
       </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>143-Palmer Pointe SHU</t>
+        </is>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -9113,6 +11093,11 @@
           <t>Less than 12</t>
         </is>
       </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>143-Palmer Pointe SHU</t>
+        </is>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -9138,6 +11123,11 @@
           <t>Less than 12</t>
         </is>
       </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>143-Palmer Pointe SHU</t>
+        </is>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -9163,6 +11153,11 @@
           <t>Less than 12</t>
         </is>
       </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>143-Palmer Pointe SHU</t>
+        </is>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -9188,6 +11183,11 @@
           <t>Less than 12</t>
         </is>
       </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>143-Unity Park SHU</t>
+        </is>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -9213,6 +11213,11 @@
           <t>More than 12</t>
         </is>
       </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>143-Unity Park SHU</t>
+        </is>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -9238,6 +11243,11 @@
           <t>Less than 12</t>
         </is>
       </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>143-Unity Park SHU</t>
+        </is>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -9263,6 +11273,11 @@
           <t>Less than 12</t>
         </is>
       </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>143-Unity Park SHU</t>
+        </is>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -9288,6 +11303,11 @@
           <t>Less than 12</t>
         </is>
       </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>143-Unity Park SHU</t>
+        </is>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -9313,6 +11333,11 @@
           <t>Less than 12</t>
         </is>
       </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>143-Unity Park SHU</t>
+        </is>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -9338,6 +11363,11 @@
           <t>Less than 12</t>
         </is>
       </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>143-Unity Park SHU</t>
+        </is>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -9363,6 +11393,11 @@
           <t>Less than 12</t>
         </is>
       </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>143-Unity Park SHU</t>
+        </is>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -9388,6 +11423,11 @@
           <t>Less than 12</t>
         </is>
       </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>143-Unity Park SHU</t>
+        </is>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -9413,6 +11453,11 @@
           <t>Less than 12</t>
         </is>
       </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>143-Unity Park SHU</t>
+        </is>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -9438,6 +11483,11 @@
           <t>Less than 12</t>
         </is>
       </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>143-Unity Park SHU</t>
+        </is>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -9463,6 +11513,11 @@
           <t>Less than 12</t>
         </is>
       </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>11495-WCHLAP1</t>
+        </is>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -9488,6 +11543,11 @@
           <t>Less than 12</t>
         </is>
       </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>11495-WCHLAP1</t>
+        </is>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -9513,6 +11573,11 @@
           <t>More than 12</t>
         </is>
       </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>11495-WCHLAP1</t>
+        </is>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -9538,6 +11603,11 @@
           <t>Less than 12</t>
         </is>
       </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>11495-WCHLAP1</t>
+        </is>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -9563,6 +11633,11 @@
           <t>Less than 12</t>
         </is>
       </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>11495-WCHLAP1</t>
+        </is>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -9588,6 +11663,11 @@
           <t>Less than 12</t>
         </is>
       </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>11495-WCHLAP1</t>
+        </is>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
@@ -9613,6 +11693,11 @@
           <t>Less than 12</t>
         </is>
       </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>11495-WCHLAP1</t>
+        </is>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -9638,6 +11723,11 @@
           <t>Less than 12</t>
         </is>
       </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>11495-WCHLAP1</t>
+        </is>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -9663,6 +11753,11 @@
           <t>Less than 12</t>
         </is>
       </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>1371-MC RRH</t>
+        </is>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -9688,6 +11783,11 @@
           <t>More than 12</t>
         </is>
       </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>1371-MC RRH</t>
+        </is>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
@@ -9713,6 +11813,11 @@
           <t>Less than 12</t>
         </is>
       </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>1371-MC RRH</t>
+        </is>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -9738,6 +11843,11 @@
           <t>More than 12</t>
         </is>
       </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>1371-MC SSO</t>
+        </is>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
@@ -9763,6 +11873,11 @@
           <t>Less than 12</t>
         </is>
       </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>1371-MC SSO</t>
+        </is>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
@@ -9788,6 +11903,11 @@
           <t>Less than 12</t>
         </is>
       </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>1371-MC SSO</t>
+        </is>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
@@ -9813,6 +11933,11 @@
           <t>Less than 12</t>
         </is>
       </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>1371-MC SSO</t>
+        </is>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
@@ -9838,6 +11963,11 @@
           <t>Less than 12</t>
         </is>
       </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>1371-MC SSO</t>
+        </is>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
@@ -9863,6 +11993,11 @@
           <t>Less than 12</t>
         </is>
       </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>1371-MC SSO</t>
+        </is>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
@@ -9888,6 +12023,11 @@
           <t>Less than 12</t>
         </is>
       </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>1371-MC SSO</t>
+        </is>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
@@ -9913,6 +12053,11 @@
           <t>Less than 12</t>
         </is>
       </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>1371-MC SSO</t>
+        </is>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
@@ -9938,6 +12083,11 @@
           <t>Less than 12</t>
         </is>
       </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>1371-MC SSO</t>
+        </is>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
@@ -9963,6 +12113,11 @@
           <t>Less than 12</t>
         </is>
       </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>1371-MC SSO</t>
+        </is>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
@@ -9988,6 +12143,11 @@
           <t>Less than 12</t>
         </is>
       </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>1371-MC SSO</t>
+        </is>
+      </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
@@ -10013,6 +12173,11 @@
           <t>More than 12</t>
         </is>
       </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>1371-MCHLAP1</t>
+        </is>
+      </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
@@ -10038,6 +12203,11 @@
           <t>Less than 12</t>
         </is>
       </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>1371-MCHLAP1</t>
+        </is>
+      </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
@@ -10063,6 +12233,11 @@
           <t>Less than 12</t>
         </is>
       </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>1371-MCHLAP1</t>
+        </is>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
@@ -10088,6 +12263,11 @@
           <t>Less than 12</t>
         </is>
       </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>1371-MCHLAP1</t>
+        </is>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
@@ -10113,6 +12293,11 @@
           <t>Less than 12</t>
         </is>
       </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>1371-MCHLAP1</t>
+        </is>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
@@ -10138,6 +12323,11 @@
           <t>Less than 12</t>
         </is>
       </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>1371-MCHLAP1</t>
+        </is>
+      </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
@@ -10163,6 +12353,11 @@
           <t>More than 12</t>
         </is>
       </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>1371-MCHLAP5</t>
+        </is>
+      </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
@@ -10188,6 +12383,11 @@
           <t>Less than 12</t>
         </is>
       </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>1371-MCHLAP5</t>
+        </is>
+      </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
@@ -10213,6 +12413,11 @@
           <t>Less than 12</t>
         </is>
       </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>1371-MCHLAP5</t>
+        </is>
+      </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
@@ -10238,6 +12443,11 @@
           <t>More than 12</t>
         </is>
       </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>1371-MCHLAP6</t>
+        </is>
+      </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
@@ -10263,6 +12473,11 @@
           <t>Less than 12</t>
         </is>
       </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>1371-MCHLAP6</t>
+        </is>
+      </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
@@ -10288,6 +12503,11 @@
           <t>Less than 12</t>
         </is>
       </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>1371-MCHLAP6</t>
+        </is>
+      </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
@@ -10313,6 +12533,11 @@
           <t>Less than 12</t>
         </is>
       </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>1371-MCHLAP6</t>
+        </is>
+      </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
@@ -10338,6 +12563,11 @@
           <t>Less than 12</t>
         </is>
       </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>1371-MCHLAP6</t>
+        </is>
+      </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
@@ -10363,6 +12593,11 @@
           <t>Less than 12</t>
         </is>
       </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>1371-MLAP1</t>
+        </is>
+      </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
@@ -10388,6 +12623,11 @@
           <t>Less than 12</t>
         </is>
       </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>1371-MLAP1</t>
+        </is>
+      </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
@@ -10413,6 +12653,11 @@
           <t>Less than 12</t>
         </is>
       </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>1371-MLAP1</t>
+        </is>
+      </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
@@ -10438,6 +12683,11 @@
           <t>Less than 12</t>
         </is>
       </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>1371-MLAP1</t>
+        </is>
+      </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
@@ -10463,6 +12713,11 @@
           <t>More than 12</t>
         </is>
       </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>1371-MLAP1</t>
+        </is>
+      </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
@@ -10488,6 +12743,11 @@
           <t>Less than 12</t>
         </is>
       </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>1371-MLAP1</t>
+        </is>
+      </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
@@ -10513,6 +12773,11 @@
           <t>Less than 12</t>
         </is>
       </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>1371-MLAP2</t>
+        </is>
+      </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
@@ -10538,6 +12803,11 @@
           <t>Less than 12</t>
         </is>
       </c>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>1371-MLAP6</t>
+        </is>
+      </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
@@ -10563,6 +12833,11 @@
           <t>More than 12</t>
         </is>
       </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>1371-MLAP6</t>
+        </is>
+      </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
@@ -10588,6 +12863,11 @@
           <t>Less than 12</t>
         </is>
       </c>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>1371-MLAP6</t>
+        </is>
+      </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
@@ -10613,6 +12893,11 @@
           <t>Less than 12</t>
         </is>
       </c>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>1371-MLAP7</t>
+        </is>
+      </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
@@ -10638,6 +12923,11 @@
           <t>Less than 12</t>
         </is>
       </c>
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>1371-MLAP7</t>
+        </is>
+      </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
@@ -10663,6 +12953,11 @@
           <t>More than 12</t>
         </is>
       </c>
+      <c r="F201" t="inlineStr">
+        <is>
+          <t>1371-MLAP7</t>
+        </is>
+      </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
@@ -10688,6 +12983,11 @@
           <t>Less than 12</t>
         </is>
       </c>
+      <c r="F202" t="inlineStr">
+        <is>
+          <t>1371-MLAP7</t>
+        </is>
+      </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
@@ -10713,6 +13013,11 @@
           <t>Less than 12</t>
         </is>
       </c>
+      <c r="F203" t="inlineStr">
+        <is>
+          <t>1371-MLAP7</t>
+        </is>
+      </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
@@ -10736,6 +13041,11 @@
       <c r="E204" t="inlineStr">
         <is>
           <t>Less than 12</t>
+        </is>
+      </c>
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>1371-MLAP7</t>
         </is>
       </c>
     </row>
